--- a/natmiOut/OldD4/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>C1qa</t>
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H2">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I2">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J2">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>16480.86563496592</v>
+        <v>2.460544267069778</v>
       </c>
       <c r="R2">
-        <v>16480.86563496592</v>
+        <v>22.144898403628</v>
       </c>
       <c r="S2">
-        <v>0.3129782843832406</v>
+        <v>2.903304508472339E-05</v>
       </c>
       <c r="T2">
-        <v>0.3129782843832406</v>
+        <v>2.917674591043614E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H3">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I3">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J3">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>5303.242391763577</v>
+        <v>0.003624457511888889</v>
       </c>
       <c r="R3">
-        <v>5303.242391763577</v>
+        <v>0.032620117607</v>
       </c>
       <c r="S3">
-        <v>0.1007107115733772</v>
+        <v>4.276656988400783E-08</v>
       </c>
       <c r="T3">
-        <v>0.1007107115733772</v>
+        <v>4.297824562753731E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H4">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I4">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J4">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>7508.890365780638</v>
+        <v>0.6828796393906665</v>
       </c>
       <c r="R4">
-        <v>7508.890365780638</v>
+        <v>6.145916754515999</v>
       </c>
       <c r="S4">
-        <v>0.1425968560363624</v>
+        <v>8.057597509302047E-06</v>
       </c>
       <c r="T4">
-        <v>0.1425968560363624</v>
+        <v>8.097479079146644E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,72 +711,72 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>97.12285641871151</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H5">
-        <v>97.12285641871151</v>
+        <v>0.037499</v>
       </c>
       <c r="I5">
-        <v>0.5641336951678629</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J5">
-        <v>0.5641336951678629</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>413.2531084206165</v>
+        <v>0.9703199699441112</v>
       </c>
       <c r="R5">
-        <v>413.2531084206165</v>
+        <v>8.732879729497</v>
       </c>
       <c r="S5">
-        <v>0.007847843174882681</v>
+        <v>1.144923251778909E-05</v>
       </c>
       <c r="T5">
-        <v>0.007847843174882681</v>
+        <v>1.150590119177015E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -782,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>75.03997882872351</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H6">
-        <v>75.03997882872351</v>
+        <v>0.037499</v>
       </c>
       <c r="I6">
-        <v>0.4358663048321371</v>
+        <v>4.922452635634417E-05</v>
       </c>
       <c r="J6">
-        <v>0.4358663048321371</v>
+        <v>4.925314557495024E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>12733.6020987189</v>
+        <v>0.05439958680566667</v>
       </c>
       <c r="R6">
-        <v>12733.6020987189</v>
+        <v>0.326397520834</v>
       </c>
       <c r="S6">
-        <v>0.2418162387308435</v>
+        <v>6.418846746456258E-07</v>
       </c>
       <c r="T6">
-        <v>0.2418162387308435</v>
+        <v>4.300411479697607E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -844,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>75.03997882872351</v>
+        <v>0.2443386666666667</v>
       </c>
       <c r="H7">
-        <v>75.03997882872351</v>
+        <v>0.733016</v>
       </c>
       <c r="I7">
-        <v>0.4358663048321371</v>
+        <v>0.0009622220702317923</v>
       </c>
       <c r="J7">
-        <v>0.4358663048321371</v>
+        <v>0.0009627815076873443</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>4097.441235520113</v>
+        <v>48.09777104643911</v>
       </c>
       <c r="R7">
-        <v>4097.441235520113</v>
+        <v>432.879939417952</v>
       </c>
       <c r="S7">
-        <v>0.07781206137215632</v>
+        <v>0.0005675267760693246</v>
       </c>
       <c r="T7">
-        <v>0.07781206137215632</v>
+        <v>0.0005703357844284983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -906,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>75.03997882872351</v>
+        <v>0.2443386666666667</v>
       </c>
       <c r="H8">
-        <v>75.03997882872351</v>
+        <v>0.733016</v>
       </c>
       <c r="I8">
-        <v>0.4358663048321371</v>
+        <v>0.0009622220702317923</v>
       </c>
       <c r="J8">
-        <v>0.4358663048321371</v>
+        <v>0.0009627815076873443</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>5801.589809572657</v>
+        <v>0.07084949858755556</v>
       </c>
       <c r="R8">
-        <v>5801.589809572657</v>
+        <v>0.637645487288</v>
       </c>
       <c r="S8">
-        <v>0.1101745299981688</v>
+        <v>8.359844259872499E-07</v>
       </c>
       <c r="T8">
-        <v>0.1101745299981688</v>
+        <v>8.401221818425797E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2443386666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.733016</v>
+      </c>
+      <c r="I9">
+        <v>0.0009622220702317923</v>
+      </c>
+      <c r="J9">
+        <v>0.0009627815076873443</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N9">
+        <v>163.895484</v>
+      </c>
+      <c r="O9">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P9">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q9">
+        <v>13.34866801108267</v>
+      </c>
+      <c r="R9">
+        <v>120.138012099744</v>
+      </c>
+      <c r="S9">
+        <v>0.000157506810738381</v>
+      </c>
+      <c r="T9">
+        <v>0.000158286400295468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>75.03997882872351</v>
-      </c>
-      <c r="H9">
-        <v>75.03997882872351</v>
-      </c>
-      <c r="I9">
-        <v>0.4358663048321371</v>
-      </c>
-      <c r="J9">
-        <v>0.4358663048321371</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="N9">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="O9">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="P9">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="Q9">
-        <v>319.2915205571818</v>
-      </c>
-      <c r="R9">
-        <v>319.2915205571818</v>
-      </c>
-      <c r="S9">
-        <v>0.006063474730968497</v>
-      </c>
-      <c r="T9">
-        <v>0.006063474730968497</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2443386666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.733016</v>
+      </c>
+      <c r="I10">
+        <v>0.0009622220702317923</v>
+      </c>
+      <c r="J10">
+        <v>0.0009627815076873443</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N10">
+        <v>232.883003</v>
+      </c>
+      <c r="O10">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P10">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q10">
+        <v>18.96744081411645</v>
+      </c>
+      <c r="R10">
+        <v>170.706967327048</v>
+      </c>
+      <c r="S10">
+        <v>0.0002238051847585186</v>
+      </c>
+      <c r="T10">
+        <v>0.0002249129221575666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2443386666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.733016</v>
+      </c>
+      <c r="I11">
+        <v>0.0009622220702317923</v>
+      </c>
+      <c r="J11">
+        <v>0.0009627815076873443</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.352083</v>
+      </c>
+      <c r="N11">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P11">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q11">
+        <v>1.063382157442667</v>
+      </c>
+      <c r="R11">
+        <v>6.380292944656</v>
+      </c>
+      <c r="S11">
+        <v>1.254731423958074E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.406278623968695E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H12">
+        <v>391.002091</v>
+      </c>
+      <c r="I12">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J12">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N12">
+        <v>590.546372</v>
+      </c>
+      <c r="O12">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P12">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q12">
+        <v>25656.09625382932</v>
+      </c>
+      <c r="R12">
+        <v>230904.8662844639</v>
+      </c>
+      <c r="S12">
+        <v>0.3027275750346441</v>
+      </c>
+      <c r="T12">
+        <v>0.3042259436133292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H13">
+        <v>391.002091</v>
+      </c>
+      <c r="I13">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J13">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.869893</v>
+      </c>
+      <c r="O13">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P13">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q13">
+        <v>37.79222021625144</v>
+      </c>
+      <c r="R13">
+        <v>340.129981946263</v>
+      </c>
+      <c r="S13">
+        <v>0.0004459270447090506</v>
+      </c>
+      <c r="T13">
+        <v>0.0004481341877884397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H14">
+        <v>391.002091</v>
+      </c>
+      <c r="I14">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J14">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N14">
+        <v>163.895484</v>
+      </c>
+      <c r="O14">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P14">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q14">
+        <v>7120.386327717449</v>
+      </c>
+      <c r="R14">
+        <v>64083.47694945704</v>
+      </c>
+      <c r="S14">
+        <v>0.08401657309724239</v>
+      </c>
+      <c r="T14">
+        <v>0.08443241824515568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H15">
+        <v>391.002091</v>
+      </c>
+      <c r="I15">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J15">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N15">
+        <v>232.883003</v>
+      </c>
+      <c r="O15">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P15">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q15">
+        <v>10117.52679237326</v>
+      </c>
+      <c r="R15">
+        <v>91057.74113135929</v>
+      </c>
+      <c r="S15">
+        <v>0.119381152958765</v>
+      </c>
+      <c r="T15">
+        <v>0.1199720372495672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>130.3340303333333</v>
+      </c>
+      <c r="H16">
+        <v>391.002091</v>
+      </c>
+      <c r="I16">
+        <v>0.5132641599460034</v>
+      </c>
+      <c r="J16">
+        <v>0.5135625725521465</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.352083</v>
+      </c>
+      <c r="N16">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P16">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q16">
+        <v>567.2245177351845</v>
+      </c>
+      <c r="R16">
+        <v>3403.347106411106</v>
+      </c>
+      <c r="S16">
+        <v>0.006692931810642801</v>
+      </c>
+      <c r="T16">
+        <v>0.004484039256305951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H17">
+        <v>368.694479</v>
+      </c>
+      <c r="I17">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J17">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N17">
+        <v>590.546372</v>
+      </c>
+      <c r="O17">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P17">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q17">
+        <v>24192.35410554225</v>
+      </c>
+      <c r="R17">
+        <v>217731.1869498802</v>
+      </c>
+      <c r="S17">
+        <v>0.2854562370008694</v>
+      </c>
+      <c r="T17">
+        <v>0.2868691200395647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H18">
+        <v>368.694479</v>
+      </c>
+      <c r="I18">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J18">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.869893</v>
+      </c>
+      <c r="O18">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P18">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q18">
+        <v>35.63608293563856</v>
+      </c>
+      <c r="R18">
+        <v>320.724746420747</v>
+      </c>
+      <c r="S18">
+        <v>0.0004204858316755476</v>
+      </c>
+      <c r="T18">
+        <v>0.0004225670519208219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H19">
+        <v>368.694479</v>
+      </c>
+      <c r="I19">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J19">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N19">
+        <v>163.895484</v>
+      </c>
+      <c r="O19">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P19">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q19">
+        <v>6714.15112042587</v>
+      </c>
+      <c r="R19">
+        <v>60427.36008383283</v>
+      </c>
+      <c r="S19">
+        <v>0.07922322503756943</v>
+      </c>
+      <c r="T19">
+        <v>0.07961534521718903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H20">
+        <v>368.694479</v>
+      </c>
+      <c r="I20">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J20">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N20">
+        <v>232.883003</v>
+      </c>
+      <c r="O20">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P20">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q20">
+        <v>9540.29749544894</v>
+      </c>
+      <c r="R20">
+        <v>85862.67745904045</v>
+      </c>
+      <c r="S20">
+        <v>0.1125701703537723</v>
+      </c>
+      <c r="T20">
+        <v>0.1131273432711586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>122.8981596666667</v>
+      </c>
+      <c r="H21">
+        <v>368.694479</v>
+      </c>
+      <c r="I21">
+        <v>0.4839812021380325</v>
+      </c>
+      <c r="J21">
+        <v>0.4842625895855205</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.352083</v>
+      </c>
+      <c r="N21">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P21">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q21">
+        <v>534.8629914165857</v>
+      </c>
+      <c r="R21">
+        <v>3209.177948499514</v>
+      </c>
+      <c r="S21">
+        <v>0.006311083914145805</v>
+      </c>
+      <c r="T21">
+        <v>0.004228214005687427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.4426515</v>
+      </c>
+      <c r="H22">
+        <v>0.885303</v>
+      </c>
+      <c r="I22">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J22">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N22">
+        <v>590.546372</v>
+      </c>
+      <c r="O22">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P22">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q22">
+        <v>87.135412461786</v>
+      </c>
+      <c r="R22">
+        <v>522.812474770716</v>
+      </c>
+      <c r="S22">
+        <v>0.001028149093814803</v>
+      </c>
+      <c r="T22">
+        <v>0.0006888253202684564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.4426515</v>
+      </c>
+      <c r="H23">
+        <v>0.885303</v>
+      </c>
+      <c r="I23">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J23">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.869893</v>
+      </c>
+      <c r="O23">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P23">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q23">
+        <v>0.1283531470965</v>
+      </c>
+      <c r="R23">
+        <v>0.770118882579</v>
+      </c>
+      <c r="S23">
+        <v>1.514495291261972E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.014660918659049E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.4426515</v>
+      </c>
+      <c r="H24">
+        <v>0.885303</v>
+      </c>
+      <c r="I24">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J24">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N24">
+        <v>163.895484</v>
+      </c>
+      <c r="O24">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P24">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q24">
+        <v>24.18286061194199</v>
+      </c>
+      <c r="R24">
+        <v>145.097163671652</v>
+      </c>
+      <c r="S24">
+        <v>0.0002853442190902809</v>
+      </c>
+      <c r="T24">
+        <v>0.0001911710317930014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.4426515</v>
+      </c>
+      <c r="H25">
+        <v>0.885303</v>
+      </c>
+      <c r="I25">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J25">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N25">
+        <v>232.883003</v>
+      </c>
+      <c r="O25">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P25">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q25">
+        <v>34.3620035341515</v>
+      </c>
+      <c r="R25">
+        <v>206.172021204909</v>
+      </c>
+      <c r="S25">
+        <v>0.00040545240789206</v>
+      </c>
+      <c r="T25">
+        <v>0.0002716394795268591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.4426515</v>
+      </c>
+      <c r="H26">
+        <v>0.885303</v>
+      </c>
+      <c r="I26">
+        <v>0.001743191319375872</v>
+      </c>
+      <c r="J26">
+        <v>0.001162803209070646</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.352083</v>
+      </c>
+      <c r="N26">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P26">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q26">
+        <v>1.9264560680745</v>
+      </c>
+      <c r="R26">
+        <v>7.705824272298</v>
+      </c>
+      <c r="S26">
+        <v>2.273110328746619E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.015271656367031E-05</v>
       </c>
     </row>
   </sheetData>
